--- a/ParaBank Test Case Design.xlsx
+++ b/ParaBank Test Case Design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB0ECF0-3BFC-4FED-8338-68F35590538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8595DE02-0C4A-4154-86AA-7D2F67344FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abdelrahman" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="868">
   <si>
     <t>TC ID</t>
   </si>
@@ -4283,9 +4283,6 @@
 - SSN : "myssn"</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>User should get his login info (username, Password)</t>
   </si>
   <si>
@@ -4305,6 +4302,35 @@
   </si>
   <si>
     <t>User can't get his login info (username, Password) and is redirected to an error page that says "The customer information provided could not be found."</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>TC_Logout_01</t>
+  </si>
+  <si>
+    <t>Check system behavior when user logout from his account</t>
+  </si>
+  <si>
+    <t>Validate user can't access any personal page after logging out</t>
+  </si>
+  <si>
+    <t>1) Stable Internet Connection
+2) Open browser
+3) Open System URL
+4) Sign in with valid Username &amp; Password</t>
+  </si>
+  <si>
+    <t>1) Enter Username
+2) Enter Password
+3) Press Log Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User shouldn't be able to access any personal page after logging out </t>
+  </si>
+  <si>
+    <t>User is logged out successfully and is not able to access any personal page</t>
   </si>
   <si>
     <t>TC_AO_001</t>
@@ -4910,16 +4936,73 @@
     <t>City - Numeric value</t>
   </si>
   <si>
+    <t>Verify city field with numeric value</t>
+  </si>
+  <si>
+    <t>Enter City = "455" and click UPDATE PROFILE</t>
+  </si>
+  <si>
+    <t>City = "455"</t>
+  </si>
+  <si>
+    <t>If only alphabetic expected → show validation error</t>
+  </si>
+  <si>
     <t>State - Numeric vs Alpha</t>
   </si>
   <si>
+    <t>Verify State field accepts or rejects numbers</t>
+  </si>
+  <si>
+    <t>Enter State = "3001" and click UPDATE PROFILE</t>
+  </si>
+  <si>
+    <t>State = "3001"</t>
+  </si>
+  <si>
+    <t>Behavior depends on requirements (accept or reject)</t>
+  </si>
+  <si>
     <t>Zip Code - Alpha chars</t>
   </si>
   <si>
+    <t>Verify Zip Code with letters</t>
+  </si>
+  <si>
+    <t>Enter Zip Code = "zayed" and click UPDATE PROFILE</t>
+  </si>
+  <si>
+    <t>Zip Code = "zayed"</t>
+  </si>
+  <si>
+    <t>If Zip must be numeric → show validation error, else accept</t>
+  </si>
+  <si>
     <t>Phone # - alphabetic</t>
   </si>
   <si>
+    <t>Verify alphabetic input in Phone field</t>
+  </si>
+  <si>
+    <t>Enter Phone = "adham" and click UPDATE PROFILE</t>
+  </si>
+  <si>
+    <t>Phone = "adham"</t>
+  </si>
+  <si>
+    <t>Should show error and reject non-numeric phone number</t>
+  </si>
+  <si>
     <t>Phone # - valid format</t>
+  </si>
+  <si>
+    <t>Verify valid phone number is accepted</t>
+  </si>
+  <si>
+    <t>Enter "01044655486" and click UPDATE PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone = "01044655486" </t>
   </si>
   <si>
     <t>Fields Trim spaces</t>
@@ -4971,7 +5054,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5093,14 +5176,6 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5723,7 +5798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5882,9 +5957,6 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5985,25 +6057,25 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6042,7 +6114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6060,10 +6132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6078,16 +6150,16 @@
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6183,16 +6255,16 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6265,16 +6337,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6634,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725057C-2532-4778-8990-23C8BC331D7B}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6650,8 +6722,8 @@
     <col min="8" max="8" width="12.85546875" style="24" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="179" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="184" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="178" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="183" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
@@ -6690,14 +6762,14 @@
       <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="182" t="s">
+      <c r="L1" s="181" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="55" customFormat="1" ht="23.25">
+    <row r="2" spans="1:13" s="54" customFormat="1" ht="23.25">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -6705,15 +6777,15 @@
       <c r="E2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="155" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="46"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
       <c r="K2" s="46"/>
-      <c r="L2" s="180"/>
+      <c r="L2" s="179"/>
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="72.75">
@@ -6747,10 +6819,10 @@
       <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="162" t="s">
+      <c r="K3" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="184" t="s">
+      <c r="L3" s="183" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="40" t="s">
@@ -6767,7 +6839,7 @@
       <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -6788,10 +6860,10 @@
       <c r="J4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="184" t="s">
+      <c r="L4" s="183" t="s">
         <v>35</v>
       </c>
       <c r="M4" s="8" t="s">
@@ -6808,7 +6880,7 @@
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -6829,10 +6901,10 @@
       <c r="J5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="163" t="s">
+      <c r="K5" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="183" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6867,10 +6939,10 @@
       <c r="J6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="163" t="s">
+      <c r="K6" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="184" t="s">
+      <c r="L6" s="183" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6884,7 +6956,7 @@
       <c r="C7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -6905,10 +6977,10 @@
       <c r="J7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="163" t="s">
+      <c r="K7" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="184" t="s">
+      <c r="L7" s="183" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6922,7 +6994,7 @@
       <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -6943,10 +7015,10 @@
       <c r="J8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="164" t="s">
+      <c r="K8" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="184" t="s">
+      <c r="L8" s="183" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6960,7 +7032,7 @@
       <c r="C9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -6981,10 +7053,10 @@
       <c r="J9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="165" t="s">
+      <c r="K9" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="184" t="s">
+      <c r="L9" s="183" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6998,7 +7070,7 @@
       <c r="C10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="61" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -7019,7 +7091,7 @@
       <c r="J10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="166" t="s">
+      <c r="K10" s="165" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7054,7 +7126,7 @@
       <c r="J11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="167" t="s">
+      <c r="K11" s="166" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7089,10 +7161,10 @@
       <c r="J12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="163" t="s">
+      <c r="K12" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="184" t="s">
+      <c r="L12" s="183" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7127,10 +7199,10 @@
       <c r="J13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="163" t="s">
+      <c r="K13" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="184" t="s">
+      <c r="L13" s="183" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7165,7 +7237,7 @@
       <c r="J14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="168" t="s">
+      <c r="K14" s="167" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7179,7 +7251,7 @@
       <c r="C15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -7200,7 +7272,7 @@
       <c r="J15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="169" t="s">
+      <c r="K15" s="168" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7214,7 +7286,7 @@
       <c r="C16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -7235,7 +7307,7 @@
       <c r="J16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="168" t="s">
+      <c r="K16" s="167" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7249,7 +7321,7 @@
       <c r="C17" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="70" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -7270,7 +7342,7 @@
       <c r="J17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="168" t="s">
+      <c r="K17" s="167" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7284,7 +7356,7 @@
       <c r="C18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -7305,10 +7377,10 @@
       <c r="J18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="170" t="s">
+      <c r="K18" s="169" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="184" t="s">
+      <c r="L18" s="183" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7322,7 +7394,7 @@
       <c r="C19" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="70" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="37" t="s">
@@ -7343,10 +7415,10 @@
       <c r="J19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="170" t="s">
+      <c r="K19" s="169" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="184" t="s">
+      <c r="L19" s="183" t="s">
         <v>125</v>
       </c>
       <c r="M19" s="8" t="s">
@@ -7354,7 +7426,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="13" customFormat="1" ht="23.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -7367,17 +7439,17 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="181"/>
+      <c r="L20" s="180"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" s="39" customFormat="1" ht="72.75">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -7386,35 +7458,35 @@
       <c r="E21" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="76" t="s">
         <v>132</v>
       </c>
       <c r="I21" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="171" t="s">
+      <c r="K21" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="183"/>
-      <c r="M21" s="79"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="78"/>
     </row>
     <row r="22" spans="1:13" s="39" customFormat="1" ht="87">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>137</v>
       </c>
       <c r="D22" s="39" t="s">
@@ -7423,37 +7495,37 @@
       <c r="E22" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="76" t="s">
         <v>132</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="78" t="s">
+      <c r="J22" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="172" t="s">
+      <c r="K22" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="183" t="s">
+      <c r="L22" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="79"/>
+      <c r="M22" s="78"/>
     </row>
     <row r="23" spans="1:13" s="25" customFormat="1" ht="87">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="68" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -7462,109 +7534,109 @@
       <c r="E23" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="173" t="s">
+      <c r="K23" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="183"/>
-      <c r="M23" s="72"/>
-    </row>
-    <row r="24" spans="1:13" s="60" customFormat="1" ht="87">
-      <c r="A24" s="82" t="s">
+      <c r="L23" s="182"/>
+      <c r="M23" s="71"/>
+    </row>
+    <row r="24" spans="1:13" s="59" customFormat="1" ht="87">
+      <c r="A24" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="87" t="s">
+      <c r="J24" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="173" t="s">
+      <c r="K24" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="183"/>
-      <c r="M24" s="86"/>
-    </row>
-    <row r="25" spans="1:13" s="99" customFormat="1" ht="87">
-      <c r="A25" s="98" t="s">
+      <c r="L24" s="182"/>
+      <c r="M24" s="85"/>
+    </row>
+    <row r="25" spans="1:13" s="98" customFormat="1" ht="87">
+      <c r="A25" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="I25" s="101" t="s">
+      <c r="I25" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="J25" s="94" t="s">
+      <c r="J25" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="171" t="s">
+      <c r="K25" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="183"/>
-      <c r="M25" s="102"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="101"/>
     </row>
     <row r="26" spans="1:13" s="39" customFormat="1" ht="72.75">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="74" t="s">
         <v>160</v>
       </c>
       <c r="D26" s="39" t="s">
@@ -7573,35 +7645,35 @@
       <c r="E26" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="78" t="s">
+      <c r="J26" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="173" t="s">
+      <c r="K26" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="183"/>
-      <c r="M26" s="79"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="78"/>
     </row>
     <row r="27" spans="1:13" s="25" customFormat="1" ht="130.5">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="68" t="s">
         <v>168</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -7610,51 +7682,51 @@
       <c r="E27" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="J27" s="109" t="s">
+      <c r="J27" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="K27" s="172" t="s">
+      <c r="K27" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="183" t="s">
+      <c r="L27" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="72" t="s">
+      <c r="M27" s="71" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="64" customFormat="1" ht="20.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="81" t="s">
+    <row r="28" spans="1:13" s="63" customFormat="1" ht="20.25">
+      <c r="A28" s="79"/>
+      <c r="B28" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="185"/>
+      <c r="C28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="184"/>
     </row>
     <row r="29" spans="1:13" s="26" customFormat="1" ht="115.5">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="105" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="26" t="s">
@@ -7663,35 +7735,35 @@
       <c r="E29" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="106" t="s">
+      <c r="F29" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="G29" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="107" t="s">
+      <c r="H29" s="106" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="110" t="s">
+      <c r="J29" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="173" t="s">
+      <c r="K29" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="L29" s="184"/>
-      <c r="M29" s="112"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="111"/>
     </row>
     <row r="30" spans="1:13" s="26" customFormat="1" ht="57.75">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="105" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -7700,63 +7772,63 @@
       <c r="E30" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F30" s="106" t="s">
+      <c r="F30" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="106" t="s">
+      <c r="G30" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="107" t="s">
+      <c r="H30" s="106" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="110" t="s">
+      <c r="J30" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="K30" s="173" t="s">
+      <c r="K30" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="L30" s="184"/>
-      <c r="M30" s="112"/>
-    </row>
-    <row r="31" spans="1:13" s="61" customFormat="1" ht="87">
-      <c r="A31" s="69" t="s">
+      <c r="L30" s="183"/>
+      <c r="M30" s="111"/>
+    </row>
+    <row r="31" spans="1:13" s="60" customFormat="1" ht="87">
+      <c r="A31" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="104" t="s">
+      <c r="F31" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="105" t="s">
+      <c r="H31" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="61" t="s">
+      <c r="I31" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="J31" s="111" t="s">
+      <c r="J31" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="K31" s="173" t="s">
+      <c r="K31" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="L31" s="184"/>
-      <c r="M31" s="113"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="112"/>
     </row>
     <row r="32" spans="1:13" ht="87">
       <c r="A32" s="9" t="s">
@@ -7789,7 +7861,7 @@
       <c r="J32" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K32" s="174" t="s">
+      <c r="K32" s="173" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7824,10 +7896,10 @@
       <c r="J33" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="172" t="s">
+      <c r="K33" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="L33" s="186" t="s">
+      <c r="L33" s="185" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7862,10 +7934,10 @@
       <c r="J34" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K34" s="162" t="s">
+      <c r="K34" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="L34" s="184" t="s">
+      <c r="L34" s="183" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7900,30 +7972,30 @@
       <c r="J35" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="K35" s="173" t="s">
+      <c r="K35" s="172" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="64" customFormat="1" ht="36">
-      <c r="A36" s="66"/>
+    <row r="36" spans="1:13" s="63" customFormat="1" ht="36">
+      <c r="A36" s="65"/>
       <c r="B36" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="185"/>
+      <c r="C36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="184"/>
     </row>
     <row r="37" spans="1:13" ht="115.5">
       <c r="A37" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="151" t="s">
+      <c r="C37" s="150" t="s">
         <v>215</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -7947,10 +8019,10 @@
       <c r="J37" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K37" s="172" t="s">
+      <c r="K37" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="L37" s="184" t="s">
+      <c r="L37" s="183" t="s">
         <v>219</v>
       </c>
     </row>
@@ -7961,7 +8033,7 @@
       <c r="B38" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="152" t="s">
         <v>222</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -7985,10 +8057,10 @@
       <c r="J38" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K38" s="165" t="s">
+      <c r="K38" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="L38" s="184" t="s">
+      <c r="L38" s="183" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7999,7 +8071,7 @@
       <c r="B39" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="124" t="s">
+      <c r="C39" s="123" t="s">
         <v>228</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -8023,10 +8095,10 @@
       <c r="J39" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K39" s="172" t="s">
+      <c r="K39" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="184" t="s">
+      <c r="L39" s="183" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8061,10 +8133,10 @@
       <c r="J40" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K40" s="172" t="s">
+      <c r="K40" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="L40" s="184" t="s">
+      <c r="L40" s="183" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8099,10 +8171,10 @@
       <c r="J41" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K41" s="172" t="s">
+      <c r="K41" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="L41" s="184" t="s">
+      <c r="L41" s="183" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8137,10 +8209,10 @@
       <c r="J42" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K42" s="172" t="s">
+      <c r="K42" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="L42" s="184" t="s">
+      <c r="L42" s="183" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8151,10 +8223,10 @@
       <c r="B43" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="135" t="s">
+      <c r="C43" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="D43" s="136" t="s">
+      <c r="D43" s="135" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="22" t="s">
@@ -8175,10 +8247,10 @@
       <c r="J43" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K43" s="172" t="s">
+      <c r="K43" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="L43" s="184" t="s">
+      <c r="L43" s="183" t="s">
         <v>253</v>
       </c>
       <c r="M43" s="19" t="s">
@@ -8189,13 +8261,13 @@
       <c r="A44" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="139" t="s">
         <v>256</v>
       </c>
-      <c r="C44" s="139" t="s">
+      <c r="C44" s="138" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="130" t="s">
+      <c r="D44" s="129" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -8216,7 +8288,7 @@
       <c r="J44" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="K44" s="173" t="s">
+      <c r="K44" s="172" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8227,10 +8299,10 @@
       <c r="B45" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="141" t="s">
+      <c r="C45" s="140" t="s">
         <v>263</v>
       </c>
-      <c r="D45" s="138" t="s">
+      <c r="D45" s="137" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -8251,7 +8323,7 @@
       <c r="J45" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="K45" s="173" t="s">
+      <c r="K45" s="172" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8262,7 +8334,7 @@
       <c r="B46" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="128" t="s">
         <v>269</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -8286,7 +8358,7 @@
       <c r="J46" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="K46" s="173" t="s">
+      <c r="K46" s="172" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8297,7 +8369,7 @@
       <c r="B47" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="136" t="s">
         <v>273</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -8321,7 +8393,7 @@
       <c r="J47" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="K47" s="171" t="s">
+      <c r="K47" s="170" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8332,7 +8404,7 @@
       <c r="B48" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="142" t="s">
+      <c r="C48" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -8356,21 +8428,21 @@
       <c r="J48" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="K48" s="171" t="s">
+      <c r="K48" s="170" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="64" customFormat="1" ht="18">
-      <c r="A49" s="67"/>
+    <row r="49" spans="1:13" s="63" customFormat="1" ht="18">
+      <c r="A49" s="66"/>
       <c r="B49" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="65"/>
-      <c r="K49" s="175"/>
-      <c r="L49" s="185"/>
+      <c r="C49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="64"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="184"/>
     </row>
     <row r="50" spans="1:13" ht="72.75">
       <c r="A50" s="10" t="s">
@@ -8403,7 +8475,7 @@
       <c r="J50" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="K50" s="171" t="s">
+      <c r="K50" s="170" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8438,7 +8510,7 @@
       <c r="J51" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="K51" s="171" t="s">
+      <c r="K51" s="170" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8449,7 +8521,7 @@
       <c r="B52" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="129" t="s">
+      <c r="C52" s="128" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -8473,7 +8545,7 @@
       <c r="J52" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K52" s="171" t="s">
+      <c r="K52" s="170" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8484,7 +8556,7 @@
       <c r="B53" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="C53" s="144" t="s">
+      <c r="C53" s="143" t="s">
         <v>295</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -8508,7 +8580,7 @@
       <c r="J53" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="K53" s="173" t="s">
+      <c r="K53" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8516,10 +8588,10 @@
       <c r="A54" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="142" t="s">
         <v>300</v>
       </c>
-      <c r="C54" s="129" t="s">
+      <c r="C54" s="128" t="s">
         <v>301</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -8543,18 +8615,18 @@
       <c r="J54" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="K54" s="173" t="s">
+      <c r="K54" s="172" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="87">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="153" t="s">
         <v>305</v>
       </c>
-      <c r="B55" s="125" t="s">
+      <c r="B55" s="124" t="s">
         <v>306</v>
       </c>
-      <c r="C55" s="124" t="s">
+      <c r="C55" s="123" t="s">
         <v>307</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -8578,93 +8650,93 @@
       <c r="J55" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="K55" s="171" t="s">
+      <c r="K55" s="170" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="127" customFormat="1" ht="87">
-      <c r="A56" s="145" t="s">
+    <row r="56" spans="1:13" s="126" customFormat="1" ht="87">
+      <c r="A56" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="148" t="s">
+      <c r="C56" s="147" t="s">
         <v>313</v>
       </c>
-      <c r="D56" s="127" t="s">
+      <c r="D56" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="127" t="s">
+      <c r="E56" s="126" t="s">
         <v>314</v>
       </c>
-      <c r="F56" s="124" t="s">
+      <c r="F56" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="124" t="s">
+      <c r="G56" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="128" t="s">
+      <c r="H56" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="I56" s="127" t="s">
+      <c r="I56" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="J56" s="127" t="s">
+      <c r="J56" s="126" t="s">
         <v>316</v>
       </c>
-      <c r="K56" s="176" t="s">
+      <c r="K56" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="L56" s="184" t="s">
+      <c r="L56" s="183" t="s">
         <v>317</v>
       </c>
-      <c r="M56" s="138"/>
-    </row>
-    <row r="57" spans="1:13" s="133" customFormat="1" ht="87">
-      <c r="A57" s="131" t="s">
+      <c r="M56" s="137"/>
+    </row>
+    <row r="57" spans="1:13" s="132" customFormat="1" ht="87">
+      <c r="A57" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="145" t="s">
         <v>319</v>
       </c>
-      <c r="C57" s="124" t="s">
+      <c r="C57" s="123" t="s">
         <v>320</v>
       </c>
-      <c r="D57" s="147" t="s">
+      <c r="D57" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="133" t="s">
+      <c r="E57" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="F57" s="132" t="s">
+      <c r="F57" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="132" t="s">
+      <c r="G57" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="134" t="s">
+      <c r="H57" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="133" t="s">
+      <c r="I57" s="132" t="s">
         <v>322</v>
       </c>
-      <c r="J57" s="133" t="s">
+      <c r="J57" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="K57" s="177" t="s">
+      <c r="K57" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="L57" s="184" t="s">
+      <c r="L57" s="183" t="s">
         <v>324</v>
       </c>
-      <c r="M57" s="147"/>
+      <c r="M57" s="146"/>
     </row>
     <row r="58" spans="1:13" ht="87">
       <c r="A58" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="73" t="s">
         <v>326</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -8691,7 +8763,7 @@
       <c r="J58" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="K58" s="174" t="s">
+      <c r="K58" s="173" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8699,10 +8771,10 @@
       <c r="A59" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B59" s="149" t="s">
+      <c r="B59" s="148" t="s">
         <v>332</v>
       </c>
-      <c r="C59" s="129" t="s">
+      <c r="C59" s="128" t="s">
         <v>333</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -8726,7 +8798,7 @@
       <c r="J59" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="K59" s="173" t="s">
+      <c r="K59" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8734,10 +8806,10 @@
       <c r="A60" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="149" t="s">
         <v>338</v>
       </c>
-      <c r="C60" s="137" t="s">
+      <c r="C60" s="136" t="s">
         <v>339</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -8761,7 +8833,7 @@
       <c r="J60" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="K60" s="173" t="s">
+      <c r="K60" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8779,7 +8851,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="16"/>
-      <c r="L61" s="181"/>
+      <c r="L61" s="180"/>
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" ht="57.75">
@@ -8813,7 +8885,7 @@
       <c r="J62" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="K62" s="178" t="s">
+      <c r="K62" s="177" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8848,7 +8920,7 @@
       <c r="J63" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="K63" s="174" t="s">
+      <c r="K63" s="173" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8883,7 +8955,7 @@
       <c r="J64" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="K64" s="173" t="s">
+      <c r="K64" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8918,10 +8990,10 @@
       <c r="J65" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="K65" s="172" t="s">
+      <c r="K65" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="184" t="s">
+      <c r="L65" s="183" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8956,10 +9028,10 @@
       <c r="J66" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="K66" s="172" t="s">
+      <c r="K66" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="184" t="s">
+      <c r="L66" s="183" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8994,7 +9066,7 @@
       <c r="J67" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="K67" s="173" t="s">
+      <c r="K67" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9012,7 +9084,7 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="16"/>
-      <c r="L68" s="181"/>
+      <c r="L68" s="180"/>
       <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="57.75">
@@ -9046,7 +9118,7 @@
       <c r="J69" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="K69" s="171" t="s">
+      <c r="K69" s="170" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9081,7 +9153,7 @@
       <c r="J70" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="K70" s="171" t="s">
+      <c r="K70" s="170" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9116,23 +9188,23 @@
       <c r="J71" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="K71" s="171" t="s">
+      <c r="K71" s="170" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="29.25">
-      <c r="A72" s="161" t="s">
+      <c r="A72" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="160" t="s">
+      <c r="B72" s="159" t="s">
         <v>394</v>
       </c>
-      <c r="K72" s="188"/>
+      <c r="K72" s="187"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="159"/>
-      <c r="B73" s="160"/>
-      <c r="K73" s="188"/>
+      <c r="A73" s="158"/>
+      <c r="B73" s="159"/>
+      <c r="K73" s="187"/>
     </row>
     <row r="74" spans="1:13" s="13" customFormat="1" ht="23.25">
       <c r="A74" s="12"/>
@@ -9148,7 +9220,7 @@
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="16"/>
-      <c r="L74" s="181"/>
+      <c r="L74" s="180"/>
       <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13" ht="72.75">
@@ -9182,7 +9254,7 @@
       <c r="J75" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="K75" s="171" t="s">
+      <c r="K75" s="170" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9217,7 +9289,7 @@
       <c r="J76" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="K76" s="173" t="s">
+      <c r="K76" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9252,23 +9324,23 @@
       <c r="J77" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="K77" s="173" t="s">
+      <c r="K77" s="172" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="29.25">
-      <c r="A78" s="161" t="s">
+      <c r="A78" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="B78" s="160" t="s">
+      <c r="B78" s="159" t="s">
         <v>407</v>
       </c>
-      <c r="K78" s="187"/>
+      <c r="K78" s="186"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="159"/>
-      <c r="B79" s="160"/>
-      <c r="K79" s="187"/>
+      <c r="A79" s="158"/>
+      <c r="B79" s="159"/>
+      <c r="K79" s="186"/>
     </row>
     <row r="80" spans="1:13" s="13" customFormat="1" ht="23.25">
       <c r="A80" s="12"/>
@@ -9284,7 +9356,7 @@
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="16"/>
-      <c r="L80" s="181"/>
+      <c r="L80" s="180"/>
       <c r="M80" s="12"/>
     </row>
     <row r="81" spans="1:11" ht="72.75">
@@ -9318,7 +9390,7 @@
       <c r="J81" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="K81" s="173" t="s">
+      <c r="K81" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9353,7 +9425,7 @@
       <c r="J82" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="K82" s="174" t="s">
+      <c r="K82" s="173" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9388,7 +9460,7 @@
       <c r="J83" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="K83" s="174" t="s">
+      <c r="K83" s="173" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9423,7 +9495,7 @@
       <c r="J84" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="K84" s="174" t="s">
+      <c r="K84" s="173" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9458,7 +9530,7 @@
       <c r="J85" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="K85" s="173" t="s">
+      <c r="K85" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9493,7 +9565,7 @@
       <c r="J86" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="K86" s="172" t="s">
+      <c r="K86" s="171" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9528,7 +9600,7 @@
       <c r="J87" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="K87" s="172" t="s">
+      <c r="K87" s="171" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9563,7 +9635,7 @@
       <c r="J88" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="K88" s="173" t="s">
+      <c r="K88" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9592,13 +9664,13 @@
       <c r="H89" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="I89" s="190" t="s">
+      <c r="I89" s="189" t="s">
         <v>445</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="K89" s="173" t="s">
+      <c r="K89" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9633,7 +9705,7 @@
       <c r="J90" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="K90" s="173" t="s">
+      <c r="K90" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9668,7 +9740,7 @@
       <c r="J91" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="K91" s="173" t="s">
+      <c r="K91" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9700,10 +9772,10 @@
       <c r="I92" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="J92" s="189" t="s">
+      <c r="J92" s="188" t="s">
         <v>423</v>
       </c>
-      <c r="K92" s="173" t="s">
+      <c r="K92" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9735,10 +9807,10 @@
       <c r="I93" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="J93" s="189" t="s">
+      <c r="J93" s="188" t="s">
         <v>423</v>
       </c>
-      <c r="K93" s="173" t="s">
+      <c r="K93" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9770,10 +9842,10 @@
       <c r="I94" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="J94" s="189" t="s">
+      <c r="J94" s="188" t="s">
         <v>423</v>
       </c>
-      <c r="K94" s="173" t="s">
+      <c r="K94" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9805,10 +9877,10 @@
       <c r="I95" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="J95" s="189" t="s">
+      <c r="J95" s="188" t="s">
         <v>423</v>
       </c>
-      <c r="K95" s="173" t="s">
+      <c r="K95" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9843,7 +9915,7 @@
       <c r="J96" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="K96" s="173" t="s">
+      <c r="K96" s="172" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9854,10 +9926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3314DC-EE1F-4F98-920F-5236415E2BA0}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9877,21 +9949,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="190" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
       <c r="A2" s="47" t="s">
@@ -9957,7 +10029,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I3" s="51" t="s">
         <v>483</v>
@@ -9994,7 +10066,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>490</v>
@@ -10031,7 +10103,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>497</v>
@@ -10043,7 +10115,7 @@
         <v>183</v>
       </c>
       <c r="L5" s="42"/>
-      <c r="M5" s="120"/>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:13" ht="226.5">
       <c r="A6" s="41" t="s">
@@ -10068,7 +10140,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I6" s="51" t="s">
         <v>504</v>
@@ -10105,7 +10177,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I7" s="51" t="s">
         <v>511</v>
@@ -10142,7 +10214,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I8" s="51" t="s">
         <v>518</v>
@@ -10179,7 +10251,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I9" s="51" t="s">
         <v>525</v>
@@ -10224,7 +10296,7 @@
       <c r="J10" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="K10" s="157" t="s">
+      <c r="K10" s="156" t="s">
         <v>116</v>
       </c>
       <c r="L10" s="42"/>
@@ -10253,7 +10325,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I11" s="51" t="s">
         <v>539</v>
@@ -10290,7 +10362,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I12" s="51" t="s">
         <v>546</v>
@@ -10327,7 +10399,7 @@
         <v>21</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I13" s="51" t="s">
         <v>553</v>
@@ -10364,7 +10436,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I14" s="51" t="s">
         <v>560</v>
@@ -10401,7 +10473,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I15" s="51" t="s">
         <v>567</v>
@@ -10438,7 +10510,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I16" s="51" t="s">
         <v>574</v>
@@ -10481,7 +10553,7 @@
       <c r="J17" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="K17" s="119" t="s">
+      <c r="K17" s="118" t="s">
         <v>116</v>
       </c>
       <c r="M17" s="49"/>
@@ -10517,7 +10589,7 @@
       <c r="J18" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="K18" s="119" t="s">
+      <c r="K18" s="118" t="s">
         <v>116</v>
       </c>
       <c r="M18" s="49"/>
@@ -10553,7 +10625,7 @@
       <c r="J19" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="K19" s="119" t="s">
+      <c r="K19" s="118" t="s">
         <v>116</v>
       </c>
       <c r="M19" s="49"/>
@@ -10589,7 +10661,7 @@
       <c r="J20" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="118" t="s">
         <v>116</v>
       </c>
       <c r="M20" s="49"/>
@@ -10625,27 +10697,27 @@
       <c r="J21" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="K21" s="119" t="s">
+      <c r="K21" s="118" t="s">
         <v>116</v>
       </c>
       <c r="M21" s="49"/>
     </row>
     <row r="22" spans="1:14" ht="33.75">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="190" t="s">
         <v>611</v>
       </c>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
     </row>
     <row r="23" spans="1:14" ht="31.5" customHeight="1">
       <c r="A23" s="47" t="s">
@@ -10711,7 +10783,7 @@
         <v>21</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I24" s="51" t="s">
         <v>618</v>
@@ -10746,7 +10818,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I25" s="51" t="s">
         <v>624</v>
@@ -10782,7 +10854,7 @@
         <v>21</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I26" s="51" t="s">
         <v>629</v>
@@ -10793,24 +10865,24 @@
       <c r="K26" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="M26" s="158"/>
+      <c r="M26" s="157"/>
     </row>
     <row r="27" spans="1:14" ht="33.75">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="190" t="s">
         <v>631</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
     </row>
     <row r="28" spans="1:14" ht="21">
       <c r="A28" s="47" t="s">
@@ -10872,17 +10944,17 @@
       <c r="F29" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="H29" s="54" t="s">
-        <v>638</v>
-      </c>
-      <c r="I29" s="51" t="s">
+      <c r="J29" s="51" t="s">
         <v>639</v>
-      </c>
-      <c r="J29" s="51" t="s">
-        <v>640</v>
       </c>
       <c r="K29" s="53" t="s">
         <v>183</v>
@@ -10890,18 +10962,18 @@
     </row>
     <row r="30" spans="1:14" ht="151.5">
       <c r="A30" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="B30" s="120" t="s">
         <v>641</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="C30" s="120" t="s">
         <v>642</v>
       </c>
-      <c r="C30" s="121" t="s">
-        <v>643</v>
-      </c>
-      <c r="D30" s="121" t="s">
+      <c r="D30" s="120" t="s">
         <v>635</v>
       </c>
-      <c r="E30" s="121" t="s">
+      <c r="E30" s="120" t="s">
         <v>636</v>
       </c>
       <c r="F30" s="50" t="s">
@@ -10911,30 +10983,121 @@
         <v>21</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="121" t="s">
+        <v>643</v>
+      </c>
+      <c r="J30" s="121" t="s">
         <v>644</v>
       </c>
-      <c r="J30" s="122" t="s">
+      <c r="K30" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="33.75">
+      <c r="A31" s="190" t="s">
         <v>645</v>
       </c>
-      <c r="K30" s="123" t="s">
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+    </row>
+    <row r="32" spans="1:14" ht="21">
+      <c r="A32" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="113.25">
+      <c r="A33" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="B33" s="120" t="s">
+        <v>647</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="K33" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="M31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A31:M31"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K21 K24:K26 K29:K30" xr:uid="{4B3B6D19-90F2-4801-977C-50ACB2136F95}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K21 K24:K26 K29:K30 K33" xr:uid="{4B3B6D19-90F2-4801-977C-50ACB2136F95}">
       <formula1>"Not Tested yet, Passed, Failed, Blocked, Skipped"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10946,8 +11109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD8D6CB-C9E6-4626-86C0-8C18E6997854}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11010,98 +11173,98 @@
     </row>
     <row r="2" spans="1:13" ht="72.75">
       <c r="A2" s="9" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>651</v>
+        <v>657</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>658</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K2" s="88" t="s">
+        <v>661</v>
+      </c>
+      <c r="K2" s="87" t="s">
         <v>183</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="57.75">
       <c r="A3" s="24" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>661</v>
+        <v>667</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>668</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K3" s="89" t="s">
+        <v>661</v>
+      </c>
+      <c r="K3" s="88" t="s">
         <v>183</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="72.75">
       <c r="A4" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>669</v>
+        <v>675</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>676</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>21</v>
@@ -11110,36 +11273,36 @@
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="K4" s="90" t="s">
+        <v>678</v>
+      </c>
+      <c r="K4" s="89" t="s">
         <v>116</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="43.5">
       <c r="A5" s="24" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="F5" s="92" t="s">
         <v>676</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>669</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>113</v>
@@ -11148,36 +11311,36 @@
         <v>113</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K5" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K5" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="57.75">
       <c r="A6" s="24" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>684</v>
+        <v>690</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>691</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>68</v>
@@ -11186,34 +11349,34 @@
         <v>68</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K6" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K6" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="57.75">
       <c r="A7" s="24" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>691</v>
+        <v>697</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>698</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>113</v>
@@ -11222,36 +11385,36 @@
         <v>68</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K7" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K7" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="43.5">
       <c r="A8" s="24" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>699</v>
+        <v>705</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>706</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>113</v>
@@ -11260,34 +11423,34 @@
         <v>68</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K8" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K8" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="43.5">
       <c r="A9" s="24" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>706</v>
+        <v>712</v>
+      </c>
+      <c r="F9" s="91" t="s">
+        <v>713</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>113</v>
@@ -11296,34 +11459,34 @@
         <v>68</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K9" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K9" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="57.75">
       <c r="A10" s="9" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>713</v>
+        <v>719</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>720</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>21</v>
@@ -11332,36 +11495,36 @@
         <v>21</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K10" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K10" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5">
       <c r="A11" s="24" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>684</v>
+        <v>727</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>691</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>21</v>
@@ -11370,51 +11533,51 @@
         <v>113</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K11" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K11" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="23.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="14" t="s">
-        <v>722</v>
-      </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
+        <v>729</v>
+      </c>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1" ht="57.75">
       <c r="A13" s="9" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>727</v>
+        <v>733</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>734</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>21</v>
@@ -11423,33 +11586,33 @@
         <v>113</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K13" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K13" s="90" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="43.5">
       <c r="A14" s="9" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="F14" s="92" t="s">
-        <v>734</v>
+        <v>740</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>741</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>21</v>
@@ -11458,33 +11621,33 @@
         <v>113</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K14" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K14" s="90" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="9" customFormat="1" ht="43.5">
       <c r="A15" s="9" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>734</v>
+        <v>746</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>741</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>21</v>
@@ -11493,33 +11656,33 @@
         <v>113</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K15" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K15" s="90" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" ht="57.75">
       <c r="A16" s="9" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>746</v>
+        <v>752</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>753</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>132</v>
@@ -11528,36 +11691,36 @@
         <v>21</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K16" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="9" customFormat="1" ht="43.5">
       <c r="A17" s="9" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="F17" s="114" t="s">
-        <v>753</v>
+        <v>759</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>760</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>113</v>
@@ -11566,36 +11729,36 @@
         <v>21</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K17" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K17" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" ht="43.5">
       <c r="A18" s="9" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="F18" s="114" t="s">
-        <v>760</v>
+        <v>766</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>767</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>113</v>
@@ -11604,33 +11767,33 @@
         <v>113</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K18" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K18" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="9" customFormat="1" ht="43.5">
       <c r="A19" s="9" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="F19" s="9">
         <v>999999</v>
@@ -11642,36 +11805,36 @@
         <v>132</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K19" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K19" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="43.5">
       <c r="A20" s="9" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="F20" s="114" t="s">
-        <v>773</v>
+        <v>779</v>
+      </c>
+      <c r="F20" s="113" t="s">
+        <v>780</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>113</v>
@@ -11680,30 +11843,30 @@
         <v>113</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K20" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K20" s="90" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="43.5">
       <c r="A21" s="9" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="F21" s="9">
         <v>99999999</v>
@@ -11715,36 +11878,36 @@
         <v>21</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K21" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K21" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="9" customFormat="1" ht="57.75">
       <c r="A22" s="9" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>21</v>
@@ -11753,36 +11916,36 @@
         <v>113</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K22" s="91" t="s">
+        <v>661</v>
+      </c>
+      <c r="K22" s="90" t="s">
         <v>183</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="9" customFormat="1" ht="115.5">
       <c r="A23" s="9" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>21</v>
@@ -11791,12 +11954,12 @@
         <v>132</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="K23" s="115" t="s">
+        <v>801</v>
+      </c>
+      <c r="K23" s="114" t="s">
         <v>116</v>
       </c>
     </row>
@@ -11896,7 +12059,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11959,19 +12122,19 @@
     </row>
     <row r="2" spans="1:13" ht="39" customHeight="1">
       <c r="B2" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="C2" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="D2" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="F2" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -11980,7 +12143,7 @@
         <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="J2" t="s">
         <v>116</v>
@@ -11989,19 +12152,19 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C3" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="D3" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E3" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="F3" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -12010,7 +12173,7 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="J3" t="s">
         <v>116</v>
@@ -12018,19 +12181,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C4" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D4" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E4" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="F4" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -12039,7 +12202,7 @@
         <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="J4" t="s">
         <v>183</v>
@@ -12047,28 +12210,28 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="C5" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="D5" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="F5" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="G5" t="s">
         <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="I5" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="J5" t="s">
         <v>116</v>
@@ -12076,19 +12239,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C6" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="D6" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E6" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="F6" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="G6" t="s">
         <v>113</v>
@@ -12097,7 +12260,7 @@
         <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="J6" t="s">
         <v>183</v>
@@ -12105,102 +12268,225 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D7" t="s">
+        <v>804</v>
+      </c>
+      <c r="E7" t="s">
+        <v>831</v>
+      </c>
+      <c r="F7" t="s">
+        <v>832</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
         <v>822</v>
+      </c>
+      <c r="I7" t="s">
+        <v>833</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>823</v>
+        <v>834</v>
+      </c>
+      <c r="C8" t="s">
+        <v>835</v>
+      </c>
+      <c r="D8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E8" t="s">
+        <v>836</v>
+      </c>
+      <c r="F8" t="s">
+        <v>837</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>822</v>
+      </c>
+      <c r="I8" t="s">
+        <v>838</v>
+      </c>
+      <c r="J8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>824</v>
+        <v>839</v>
+      </c>
+      <c r="C9" t="s">
+        <v>840</v>
+      </c>
+      <c r="D9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E9" t="s">
+        <v>841</v>
+      </c>
+      <c r="F9" t="s">
+        <v>842</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" t="s">
+        <v>822</v>
+      </c>
+      <c r="I9" t="s">
+        <v>843</v>
+      </c>
+      <c r="J9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
-        <v>825</v>
+        <v>844</v>
+      </c>
+      <c r="C10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D10" t="s">
+        <v>804</v>
+      </c>
+      <c r="E10" t="s">
+        <v>846</v>
+      </c>
+      <c r="F10" t="s">
+        <v>847</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" t="s">
+        <v>848</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
-        <v>826</v>
+        <v>849</v>
+      </c>
+      <c r="C11" t="s">
+        <v>850</v>
+      </c>
+      <c r="D11" t="s">
+        <v>804</v>
+      </c>
+      <c r="E11" t="s">
+        <v>851</v>
+      </c>
+      <c r="F11" t="s">
+        <v>852</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
-        <v>827</v>
+        <v>853</v>
+      </c>
+      <c r="D12" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
-        <v>828</v>
+        <v>854</v>
+      </c>
+      <c r="D13" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>829</v>
+        <v>855</v>
+      </c>
+      <c r="D14" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
